--- a/CP05MOAS-GL00#/Omaha_Cal_Info_CP05MOAS-GL00#_0000#.xlsx
+++ b/CP05MOAS-GL00#/Omaha_Cal_Info_CP05MOAS-GL00#_0000#.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="3" r:id="rId1"/>
@@ -2094,7 +2094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -2249,8 +2249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2457,7 @@
         <v>56</v>
       </c>
       <c r="F7" s="39">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>55</v>
@@ -2513,7 +2513,7 @@
         <v>58</v>
       </c>
       <c r="F9" s="39">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="G9" s="21" t="s">
         <v>55</v>
